--- a/biology/Botanique/Huaceae/Huaceae.xlsx
+++ b/biology/Botanique/Huaceae/Huaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La petite famille des Huacées regroupe des plantes dicotylédones ; elle comprend 3 espèces réparties en 2 genres.
 Ce sont des arbustes ou des arbres à feuilles persistantes, à odeur d'ail, des régions tropicales d'Afrique.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Hua nommé en hommage au botaniste français Henri Hua (1861–1919), conservateur de l'herbier du Muséum national d’Histoire naturelle de Paris, qui participa à de nombreuses expéditions botaniques en Afrique.
 </t>
@@ -543,10 +557,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification phylogénétique APG II (2003)[1] n'a pas encore déterminé l'emplacement exact de cette famille, mais elle en situe la divergence au niveau des Eurosids I.
-La classification phylogénétique APG III (2009)[2] place cette famille dans l'ordre Oxalidales.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification phylogénétique APG II (2003) n'a pas encore déterminé l'emplacement exact de cette famille, mais elle en situe la divergence au niveau des Eurosids I.
+La classification phylogénétique APG III (2009) place cette famille dans l'ordre Oxalidales.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (11 décembre 2016)[3], NCBI  (11 décembre 2016)[4] et DELTA Angio           (11 décembre 2016)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (11 décembre 2016), NCBI  (11 décembre 2016) et DELTA Angio           (11 décembre 2016) :
 genre Afrostyrax
 genre Hua</t>
         </is>
@@ -607,9 +625,11 @@
           <t>Liste des genres et espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (11 décembre 2016)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (11 décembre 2016) :
 genre Afrostyrax
 Afrostyrax kamerunensis
 Afrostyrax lepidophyllus
